--- a/Data/1xA100_80GB_On-Demand_Pricing_Perf_Data.xlsx
+++ b/Data/1xA100_80GB_On-Demand_Pricing_Perf_Data.xlsx
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="453">
   <si>
     <t xml:space="preserve">       </t>
   </si>
@@ -1395,13 +1395,25 @@
     <t>Cloud-GPUs</t>
   </si>
   <si>
-    <t>Form_factor</t>
+    <t>company</t>
   </si>
   <si>
-    <t>Internal_Storage</t>
+    <t>form_factor</t>
   </si>
   <si>
-    <t>Price_On_Demand</t>
+    <t>vram</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>vcpus</t>
+  </si>
+  <si>
+    <t>internal_storage</t>
+  </si>
+  <si>
+    <t>price_on_demand</t>
   </si>
   <si>
     <t>Lambda_Labs</t>
@@ -2574,11 +2586,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="615726301"/>
-        <c:axId val="918276494"/>
+        <c:axId val="59345481"/>
+        <c:axId val="1447142540"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="615726301"/>
+        <c:axId val="59345481"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,10 +2642,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="918276494"/>
+        <c:crossAx val="1447142540"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="918276494"/>
+        <c:axId val="1447142540"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +2720,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615726301"/>
+        <c:crossAx val="59345481"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2933,11 +2945,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1998809511"/>
-        <c:axId val="284711838"/>
+        <c:axId val="1286510020"/>
+        <c:axId val="71187419"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1998809511"/>
+        <c:axId val="1286510020"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2989,10 +3001,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284711838"/>
+        <c:crossAx val="71187419"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="284711838"/>
+        <c:axId val="71187419"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.5"/>
@@ -3068,7 +3080,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1998809511"/>
+        <c:crossAx val="1286510020"/>
         <c:crosses val="max"/>
         <c:majorUnit val="1.0"/>
         <c:minorUnit val="0.25"/>
@@ -3180,11 +3192,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="448126248"/>
-        <c:axId val="514005582"/>
+        <c:axId val="1959128481"/>
+        <c:axId val="654756973"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="448126248"/>
+        <c:axId val="1959128481"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3236,10 +3248,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514005582"/>
+        <c:crossAx val="654756973"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514005582"/>
+        <c:axId val="654756973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100.0"/>
@@ -3315,7 +3327,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448126248"/>
+        <c:crossAx val="1959128481"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -3434,11 +3446,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="137247549"/>
-        <c:axId val="1763605256"/>
+        <c:axId val="481193256"/>
+        <c:axId val="1233207302"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137247549"/>
+        <c:axId val="481193256"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3490,10 +3502,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1763605256"/>
+        <c:crossAx val="1233207302"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1763605256"/>
+        <c:axId val="1233207302"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3568,7 +3580,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137247549"/>
+        <c:crossAx val="481193256"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -3681,11 +3693,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="583971404"/>
-        <c:axId val="1857165323"/>
+        <c:axId val="422843572"/>
+        <c:axId val="2143939268"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="583971404"/>
+        <c:axId val="422843572"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3737,10 +3749,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1857165323"/>
+        <c:crossAx val="2143939268"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1857165323"/>
+        <c:axId val="2143939268"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3815,7 +3827,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583971404"/>
+        <c:crossAx val="422843572"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -44736,25 +44748,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>94</v>
+        <v>347</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>101</v>
+        <v>349</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>11</v>
+        <v>350</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>6</v>
+        <v>351</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1">
@@ -44898,7 +44910,7 @@
     </row>
     <row r="8">
       <c r="A8" s="73" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>172</v>
@@ -44921,7 +44933,7 @@
     </row>
     <row r="9">
       <c r="A9" s="73" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B9" s="49" t="s">
         <v>147</v>
@@ -45634,12 +45646,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="89" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -45697,75 +45709,75 @@
         <v>97</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H3" s="44" t="s">
         <v>337</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K3" s="38" t="s">
         <v>115</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C4" s="32"/>
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C5" s="32"/>
     </row>
     <row r="6">
       <c r="A6" s="35" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C6" s="32"/>
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C7" s="32"/>
     </row>
     <row r="8">
       <c r="A8" s="35" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C8" s="32"/>
     </row>
@@ -45774,10 +45786,10 @@
     </row>
     <row r="10">
       <c r="A10" s="35" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C10" s="32">
         <f>D10/30/24</f>
@@ -45796,10 +45808,10 @@
         <v>64.0</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M10" s="49" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11">
@@ -45807,7 +45819,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C11" s="36">
         <v>3.01</v>
@@ -45823,7 +45835,7 @@
         <v>244.0</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>39</v>
@@ -45837,7 +45849,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="89" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C12" s="36">
         <v>3.456</v>
@@ -45856,21 +45868,21 @@
         <v>72.0</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="35" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C13" s="36">
         <v>2.18</v>
@@ -45885,16 +45897,16 @@
         <v>96.0</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14">
@@ -45912,21 +45924,21 @@
         <v>164</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="35" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C15" s="36">
         <v>6.91</v>
@@ -45944,13 +45956,13 @@
         <v>32.0</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16">
@@ -45973,18 +45985,18 @@
         <v>64.0</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="35" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>136</v>
@@ -46002,15 +46014,15 @@
         <v>64.0</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="35" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C18" s="36">
         <v>1.76</v>
@@ -46037,7 +46049,7 @@
         <v>237</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C19" s="36">
         <v>5.05</v>
@@ -46053,7 +46065,7 @@
         <v>496.0</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="H19" s="35" t="s">
         <v>320</v>
@@ -46061,22 +46073,22 @@
     </row>
     <row r="20">
       <c r="A20" s="35" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="35" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="35" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="35" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -46111,11 +46123,11 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="111" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="112" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D1" s="113"/>
       <c r="E1" s="113"/>
@@ -46147,10 +46159,10 @@
         <v>94</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C2" s="112" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D2" s="113"/>
       <c r="E2" s="113"/>
@@ -46179,33 +46191,33 @@
     </row>
     <row r="3">
       <c r="A3" s="89" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B3" s="89" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="89" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B4" s="115"/>
       <c r="C4" s="114" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="89" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C5" s="114" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6">
@@ -49232,21 +49244,21 @@
   <sheetData>
     <row r="2">
       <c r="E2" s="38" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3">
       <c r="D3" s="38" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E3" s="49">
         <v>1.48</v>
@@ -49297,7 +49309,7 @@
     </row>
     <row r="6">
       <c r="D6" s="38" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E6" s="49">
         <v>451.0</v>
@@ -49316,7 +49328,7 @@
       <c r="A7" s="38"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9">
@@ -49324,48 +49336,48 @@
         <v>94</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C9" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>424</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>420</v>
-      </c>
       <c r="E9" s="38" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="J9" s="38" t="s">
         <v>109</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="117" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C10" s="50" t="str">
         <f>VLOOKUP(A10, 'GPU Cloud'!4:71, 3, false)</f>
@@ -49410,10 +49422,10 @@
     </row>
     <row r="11">
       <c r="A11" s="119" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C11" s="50" t="str">
         <f>VLOOKUP(A11, 'GPU Cloud'!4:72, 3, false)</f>
@@ -49458,10 +49470,10 @@
     </row>
     <row r="12">
       <c r="A12" s="120" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C12" s="50" t="str">
         <f>VLOOKUP(A12, 'GPU Cloud'!5:74, 3, false)</f>
@@ -49506,10 +49518,10 @@
     </row>
     <row r="13">
       <c r="A13" s="119" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C13" s="50" t="str">
         <f>VLOOKUP(A13, 'GPU Cloud'!2:70, 3, false)</f>
@@ -49554,10 +49566,10 @@
     </row>
     <row r="14">
       <c r="A14" s="65" t="s">
+        <v>440</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>436</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>432</v>
       </c>
       <c r="C14" s="50" t="str">
         <f>VLOOKUP(A14, 'GPU Cloud'!11:79, 3, false)</f>
@@ -49602,10 +49614,10 @@
     </row>
     <row r="15">
       <c r="A15" s="120" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C15" s="50" t="str">
         <f>VLOOKUP(A15, 'GPU Cloud'!6:75, 3, false)</f>
@@ -49650,10 +49662,10 @@
     </row>
     <row r="16">
       <c r="A16" s="59" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C16" s="50" t="str">
         <f>VLOOKUP(A16, 'GPU Cloud'!11:80, 3, false)</f>
@@ -49698,10 +49710,10 @@
     </row>
     <row r="17">
       <c r="A17" s="65" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C17" s="50" t="str">
         <f>VLOOKUP(A17, 'GPU Cloud'!7:77, 3, false)</f>
@@ -49746,10 +49758,10 @@
     </row>
     <row r="18">
       <c r="A18" s="65" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C18" s="50" t="str">
         <f>VLOOKUP(A18, 'GPU Cloud'!3:71, 3, false)</f>
@@ -49794,10 +49806,10 @@
     </row>
     <row r="19">
       <c r="A19" s="59" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C19" s="50" t="str">
         <f>VLOOKUP(A19, 'GPU Cloud'!9:78, 3, false)</f>
@@ -49842,10 +49854,10 @@
     </row>
     <row r="20">
       <c r="A20" s="65" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C20" s="50" t="str">
         <f>VLOOKUP(A20, 'GPU Cloud'!17:82, 3, false)</f>
@@ -49890,10 +49902,10 @@
     </row>
     <row r="21">
       <c r="A21" s="121" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C21" s="50" t="str">
         <f>VLOOKUP(A21, 'GPU Cloud'!1:68, 3, false)</f>
@@ -49938,10 +49950,10 @@
     </row>
     <row r="22">
       <c r="A22" s="121" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C22" s="50" t="str">
         <f>VLOOKUP(A22, 'GPU Cloud'!1:68, 3, false)</f>
@@ -49986,10 +49998,10 @@
     </row>
     <row r="23">
       <c r="A23" s="120" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C23" s="50" t="str">
         <f>VLOOKUP(A23, 'GPU Cloud'!12:81, 3, false)</f>
@@ -50034,10 +50046,10 @@
     </row>
     <row r="24">
       <c r="A24" s="65" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C24" s="50" t="str">
         <f>VLOOKUP(A24, 'GPU Cloud'!14:82, 3, false)</f>
@@ -50082,10 +50094,10 @@
     </row>
     <row r="25">
       <c r="A25" s="120" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C25" s="50" t="str">
         <f>VLOOKUP(A25, 'GPU Cloud'!17:87, 3, false)</f>
